--- a/data/suporteMilho.xlsx
+++ b/data/suporteMilho.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christiano/Documents/analysis/reporteSemanal/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta-my.sharepoint.com/personal/chris_simoes_syngenta_com/Documents/Documents/AnalysisR/reporteSemanal/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3BF821-1A33-0448-AF8D-5FCE845304DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{4D3BF821-1A33-0448-AF8D-5FCE845304DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B0DAEB7-3B02-45AA-B2D3-701E40E8C34B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="15060" activeTab="1" xr2:uid="{D3691A72-1D75-4D53-A4B7-90B12D9BB150}"/>
+    <workbookView xWindow="3480" yWindow="1515" windowWidth="21600" windowHeight="13635" xr2:uid="{D3691A72-1D75-4D53-A4B7-90B12D9BB150}"/>
   </bookViews>
   <sheets>
     <sheet name="Checks" sheetId="36" r:id="rId1"/>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1156,21 +1156,21 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.6640625" style="7"/>
+    <col min="1" max="1" width="18.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>27</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>213</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>148</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>36</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>212</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>17</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>61</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>57</v>
       </c>
@@ -1357,7 +1357,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>44</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>103</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>21</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>64</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>125</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>210</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>42</v>
       </c>
@@ -1527,7 +1527,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>49</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
@@ -1561,7 +1561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>108</v>
       </c>
@@ -1578,7 +1578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>107</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>111</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>111</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>129</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>82</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>126</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>97</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>112</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>120</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>117</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>136</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>96</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="G37" s="13"/>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>65</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>105</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>106</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>211</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>209</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>214</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>99</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>215</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>36</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>17</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>39</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>104</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>49</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>32</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>55</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>41</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>206</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>125</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>147</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>112</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>28</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>136</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>88</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>209</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>107</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>217</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>136</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>103</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>147</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>125</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>19</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>105</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>106</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>209</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>217</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>103</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>16</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>125</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>135</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>106</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>216</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>108</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>209</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>107</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>112</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>105</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>136</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>35</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>104</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
         <v>32</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
         <v>114</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>111</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>107</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>111</v>
       </c>
@@ -2756,9 +2756,7 @@
   <autoFilter ref="A1:E93" xr:uid="{B0EDAA8D-8E1B-4C97-952E-CACA70ECA49E}">
     <filterColumn colId="0">
       <filters>
-        <filter val="SYN522VIP3"/>
-        <filter val="SYN555"/>
-        <filter val="SYN555VIP3"/>
+        <filter val="STATUSVIP3"/>
       </filters>
     </filterColumn>
     <filterColumn colId="2">
@@ -2780,18 +2778,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:B147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>218</v>
       </c>
@@ -2799,7 +2797,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -2807,7 +2805,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>101</v>
       </c>
@@ -2815,7 +2813,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>60</v>
       </c>
@@ -2831,7 +2829,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>138</v>
       </c>
@@ -2839,7 +2837,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>148</v>
       </c>
@@ -2847,7 +2845,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2855,7 +2853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -2863,7 +2861,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>139</v>
       </c>
@@ -2871,7 +2869,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>140</v>
       </c>
@@ -2879,7 +2877,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>54</v>
       </c>
@@ -2887,7 +2885,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2895,7 +2893,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
@@ -2903,7 +2901,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2919,7 +2917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2927,7 +2925,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>52</v>
       </c>
@@ -2935,7 +2933,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
@@ -2943,7 +2941,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>72</v>
       </c>
@@ -2951,7 +2949,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>57</v>
       </c>
@@ -2959,7 +2957,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>48</v>
       </c>
@@ -2967,7 +2965,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>141</v>
       </c>
@@ -2975,7 +2973,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>24</v>
       </c>
@@ -2991,7 +2989,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>149</v>
       </c>
@@ -2999,7 +2997,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>150</v>
       </c>
@@ -3007,7 +3005,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -3015,7 +3013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>152</v>
       </c>
@@ -3023,7 +3021,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>40</v>
       </c>
@@ -3031,7 +3029,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -3039,7 +3037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>153</v>
       </c>
@@ -3047,7 +3045,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>69</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>142</v>
       </c>
@@ -3063,7 +3061,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>39</v>
       </c>
@@ -3071,7 +3069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>53</v>
       </c>
@@ -3079,7 +3077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
@@ -3087,7 +3085,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>47</v>
       </c>
@@ -3095,7 +3093,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>94</v>
       </c>
@@ -3103,7 +3101,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
@@ -3111,7 +3109,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>33</v>
       </c>
@@ -3119,7 +3117,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>68</v>
       </c>
@@ -3127,7 +3125,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>70</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>143</v>
       </c>
@@ -3143,7 +3141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>155</v>
       </c>
@@ -3151,7 +3149,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>157</v>
       </c>
@@ -3159,7 +3157,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>63</v>
       </c>
@@ -3167,7 +3165,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>42</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>159</v>
       </c>
@@ -3183,7 +3181,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>158</v>
       </c>
@@ -3191,7 +3189,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>160</v>
       </c>
@@ -3199,7 +3197,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>161</v>
       </c>
@@ -3207,7 +3205,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>43</v>
       </c>
@@ -3215,7 +3213,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>62</v>
       </c>
@@ -3223,7 +3221,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>49</v>
       </c>
@@ -3231,7 +3229,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>32</v>
       </c>
@@ -3239,7 +3237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>55</v>
       </c>
@@ -3247,7 +3245,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>73</v>
       </c>
@@ -3255,7 +3253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>41</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>163</v>
       </c>
@@ -3271,7 +3269,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>164</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>22</v>
       </c>
@@ -3287,7 +3285,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>26</v>
       </c>
@@ -3295,7 +3293,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>23</v>
       </c>
@@ -3303,7 +3301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>28</v>
       </c>
@@ -3311,7 +3309,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>35</v>
       </c>
@@ -3319,7 +3317,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>37</v>
       </c>
@@ -3327,7 +3325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>50</v>
       </c>
@@ -3335,7 +3333,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
@@ -3343,7 +3341,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>80</v>
       </c>
@@ -3351,7 +3349,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>165</v>
       </c>
@@ -3359,7 +3357,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>166</v>
       </c>
@@ -3367,7 +3365,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>167</v>
       </c>
@@ -3375,7 +3373,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>168</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>169</v>
       </c>
@@ -3391,7 +3389,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>170</v>
       </c>
@@ -3399,7 +3397,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>171</v>
       </c>
@@ -3407,7 +3405,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>172</v>
       </c>
@@ -3415,7 +3413,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>173</v>
       </c>
@@ -3423,7 +3421,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>174</v>
       </c>
@@ -3431,7 +3429,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>175</v>
       </c>
@@ -3439,7 +3437,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>176</v>
       </c>
@@ -3447,7 +3445,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>177</v>
       </c>
@@ -3455,7 +3453,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>178</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>179</v>
       </c>
@@ -3471,7 +3469,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>180</v>
       </c>
@@ -3479,7 +3477,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>181</v>
       </c>
@@ -3487,7 +3485,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>182</v>
       </c>
@@ -3495,7 +3493,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>183</v>
       </c>
@@ -3503,7 +3501,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>184</v>
       </c>
@@ -3511,7 +3509,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>185</v>
       </c>
@@ -3519,7 +3517,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>186</v>
       </c>
@@ -3527,7 +3525,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>187</v>
       </c>
@@ -3535,7 +3533,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>188</v>
       </c>
@@ -3543,7 +3541,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>189</v>
       </c>
@@ -3551,7 +3549,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>190</v>
       </c>
@@ -3559,7 +3557,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>31</v>
       </c>
@@ -3567,7 +3565,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>34</v>
       </c>
@@ -3575,7 +3573,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>30</v>
       </c>
@@ -3583,7 +3581,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>191</v>
       </c>
@@ -3591,7 +3589,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>192</v>
       </c>
@@ -3599,7 +3597,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>151</v>
       </c>
@@ -3607,7 +3605,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>45</v>
       </c>
@@ -3615,7 +3613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>193</v>
       </c>
@@ -3623,7 +3621,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>59</v>
       </c>
@@ -3631,7 +3629,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>194</v>
       </c>
@@ -3639,7 +3637,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>195</v>
       </c>
@@ -3647,7 +3645,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>196</v>
       </c>
@@ -3655,7 +3653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>197</v>
       </c>
@@ -3663,7 +3661,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>198</v>
       </c>
@@ -3671,7 +3669,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>146</v>
       </c>
@@ -3679,7 +3677,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>199</v>
       </c>
@@ -3687,7 +3685,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>200</v>
       </c>
@@ -3695,7 +3693,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>201</v>
       </c>
@@ -3703,7 +3701,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>202</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>203</v>
       </c>
@@ -3719,7 +3717,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>204</v>
       </c>
@@ -3727,7 +3725,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>137</v>
       </c>
@@ -3735,7 +3733,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="s">
         <v>77</v>
       </c>
@@ -3743,7 +3741,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>82</v>
       </c>
@@ -3751,7 +3749,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>86</v>
       </c>
@@ -3759,7 +3757,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>81</v>
       </c>
@@ -3767,7 +3765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>89</v>
       </c>
@@ -3775,7 +3773,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="17" t="s">
         <v>91</v>
       </c>
@@ -3783,7 +3781,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>17</v>
       </c>
@@ -3791,7 +3789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>93</v>
       </c>
@@ -3799,7 +3797,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>94</v>
       </c>
@@ -3807,7 +3805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>63</v>
       </c>
@@ -3815,7 +3813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>57</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>85</v>
       </c>
@@ -3831,7 +3829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>49</v>
       </c>
@@ -3839,7 +3837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>83</v>
       </c>
@@ -3847,7 +3845,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>79</v>
       </c>
@@ -3855,7 +3853,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="18" t="s">
         <v>59</v>
       </c>
@@ -3863,7 +3861,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="18" t="s">
         <v>95</v>
       </c>
@@ -3871,7 +3869,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="18" t="s">
         <v>96</v>
       </c>
@@ -3879,7 +3877,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>92</v>
       </c>
@@ -3887,7 +3885,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="18" t="s">
         <v>97</v>
       </c>
@@ -3895,7 +3893,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>90</v>
       </c>
@@ -3903,7 +3901,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>80</v>
       </c>
@@ -3911,7 +3909,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>78</v>
       </c>
@@ -3919,7 +3917,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>98</v>
       </c>
@@ -3927,7 +3925,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>81</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>23</v>
       </c>
@@ -3943,7 +3941,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>92</v>
       </c>
@@ -3951,7 +3949,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>84</v>
       </c>
@@ -3959,7 +3957,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>87</v>
       </c>
@@ -3988,13 +3986,13 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -4002,7 +4000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -4010,7 +4008,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -4018,7 +4016,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -4026,7 +4024,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -4034,7 +4032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -4042,7 +4040,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>74</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>207</v>
       </c>
@@ -4065,12 +4063,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4291,15 +4286,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3C2A8F-D301-4EF8-A85A-44ED1557E987}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B03A569-7D12-46E7-866A-8C879B2EE202}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="d000c3fc-646a-45b9-8f28-d58da64eed72"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4324,18 +4331,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B03A569-7D12-46E7-866A-8C879B2EE202}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B3C2A8F-D301-4EF8-A85A-44ED1557E987}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6dc6a0a8-bfbb-4dfb-9ca6-66b146c89134"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="d000c3fc-646a-45b9-8f28-d58da64eed72"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>